--- a/state_results/Rivers/HautapuatUSRangitikeiRiverConf_e993868106.xlsx
+++ b/state_results/Rivers/HautapuatUSRangitikeiRiverConf_e993868106.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U334"/>
+  <dimension ref="A1:U337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1133,7 +1133,7 @@
         <v>0.16</v>
       </c>
       <c r="G9" t="n">
-        <v>0.207864367745627</v>
+        <v>0.207851733930163</v>
       </c>
       <c r="H9" t="n">
         <v>0.622</v>
@@ -1210,7 +1210,7 @@
         <v>0.16</v>
       </c>
       <c r="G10" t="n">
-        <v>0.207864367745627</v>
+        <v>0.207851733930163</v>
       </c>
       <c r="H10" t="n">
         <v>0.622</v>
@@ -1931,7 +1931,7 @@
         <v>0.15</v>
       </c>
       <c r="G19" t="n">
-        <v>0.193310235045283</v>
+        <v>0.19329365963562</v>
       </c>
       <c r="H19" t="n">
         <v>0.622</v>
@@ -2008,7 +2008,7 @@
         <v>0.15</v>
       </c>
       <c r="G20" t="n">
-        <v>0.193310235045283</v>
+        <v>0.19329365963562</v>
       </c>
       <c r="H20" t="n">
         <v>0.622</v>
@@ -2729,7 +2729,7 @@
         <v>0.16</v>
       </c>
       <c r="G29" t="n">
-        <v>0.196541415657774</v>
+        <v>0.196515028224602</v>
       </c>
       <c r="H29" t="n">
         <v>0.622</v>
@@ -2806,7 +2806,7 @@
         <v>0.16</v>
       </c>
       <c r="G30" t="n">
-        <v>0.196541415657774</v>
+        <v>0.196515028224602</v>
       </c>
       <c r="H30" t="n">
         <v>0.622</v>
@@ -3867,7 +3867,7 @@
         <v>0.1435</v>
       </c>
       <c r="G43" t="n">
-        <v>0.178808313030307</v>
+        <v>0.178723054524102</v>
       </c>
       <c r="H43" t="n">
         <v>0.622</v>
@@ -3944,7 +3944,7 @@
         <v>0.1435</v>
       </c>
       <c r="G44" t="n">
-        <v>0.178808313030307</v>
+        <v>0.178723054524102</v>
       </c>
       <c r="H44" t="n">
         <v>0.622</v>
@@ -5005,7 +5005,7 @@
         <v>0.136</v>
       </c>
       <c r="G57" t="n">
-        <v>0.168756588892376</v>
+        <v>0.168697192455137</v>
       </c>
       <c r="H57" t="n">
         <v>0.622</v>
@@ -5082,7 +5082,7 @@
         <v>0.136</v>
       </c>
       <c r="G58" t="n">
-        <v>0.168756588892376</v>
+        <v>0.168697192455137</v>
       </c>
       <c r="H58" t="n">
         <v>0.622</v>
@@ -6143,18 +6143,18 @@
         <v>0.1255</v>
       </c>
       <c r="G71" t="n">
-        <v>0.146825554409617</v>
+        <v>0.146743744179275</v>
       </c>
       <c r="H71" t="n">
         <v>0.521</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3392</v>
+        <v>0.3395</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>0.076</v>
+        <v>0.07575</v>
       </c>
       <c r="M71" t="n">
         <v>0.24668</v>
@@ -6220,18 +6220,18 @@
         <v>0.1255</v>
       </c>
       <c r="G72" t="n">
-        <v>0.146825554409617</v>
+        <v>0.146743744179275</v>
       </c>
       <c r="H72" t="n">
         <v>0.521</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3392</v>
+        <v>0.3395</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>0.076</v>
+        <v>0.07575</v>
       </c>
       <c r="M72" t="n">
         <v>0.24668</v>
@@ -7278,10 +7278,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.112</v>
+        <v>0.1125</v>
       </c>
       <c r="G85" t="n">
-        <v>0.140516611015047</v>
+        <v>0.140420410179753</v>
       </c>
       <c r="H85" t="n">
         <v>0.521</v>
@@ -7298,7 +7298,7 @@
         <v>0.25308</v>
       </c>
       <c r="N85" t="n">
-        <v>0.34496</v>
+        <v>0.34535</v>
       </c>
       <c r="O85" t="n">
         <v>1842978.43</v>
@@ -7355,10 +7355,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.112</v>
+        <v>0.1125</v>
       </c>
       <c r="G86" t="n">
-        <v>0.140516611015047</v>
+        <v>0.140420410179753</v>
       </c>
       <c r="H86" t="n">
         <v>0.521</v>
@@ -7375,7 +7375,7 @@
         <v>0.25308</v>
       </c>
       <c r="N86" t="n">
-        <v>0.34496</v>
+        <v>0.34535</v>
       </c>
       <c r="O86" t="n">
         <v>1842978.43</v>
@@ -8419,7 +8419,7 @@
         <v>0.1</v>
       </c>
       <c r="G99" t="n">
-        <v>0.128203022525648</v>
+        <v>0.128154905390605</v>
       </c>
       <c r="H99" t="n">
         <v>0.49</v>
@@ -8436,7 +8436,7 @@
         <v>0.22817</v>
       </c>
       <c r="N99" t="n">
-        <v>0.34496</v>
+        <v>0.34535</v>
       </c>
       <c r="O99" t="n">
         <v>1842978.43</v>
@@ -8496,7 +8496,7 @@
         <v>0.1</v>
       </c>
       <c r="G100" t="n">
-        <v>0.128203022525648</v>
+        <v>0.128154905390605</v>
       </c>
       <c r="H100" t="n">
         <v>0.49</v>
@@ -8513,7 +8513,7 @@
         <v>0.22817</v>
       </c>
       <c r="N100" t="n">
-        <v>0.34496</v>
+        <v>0.34535</v>
       </c>
       <c r="O100" t="n">
         <v>1842978.43</v>
@@ -9554,10 +9554,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.1085</v>
+        <v>0.10875</v>
       </c>
       <c r="G113" t="n">
-        <v>0.136667328284401</v>
+        <v>0.136676482014987</v>
       </c>
       <c r="H113" t="n">
         <v>0.49</v>
@@ -9574,7 +9574,7 @@
         <v>0.2358</v>
       </c>
       <c r="N113" t="n">
-        <v>0.3502</v>
+        <v>0.35055</v>
       </c>
       <c r="O113" t="n">
         <v>1842978.43</v>
@@ -9631,10 +9631,10 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.1085</v>
+        <v>0.10875</v>
       </c>
       <c r="G114" t="n">
-        <v>0.136667328284401</v>
+        <v>0.136676482014987</v>
       </c>
       <c r="H114" t="n">
         <v>0.49</v>
@@ -9651,7 +9651,7 @@
         <v>0.2358</v>
       </c>
       <c r="N114" t="n">
-        <v>0.3502</v>
+        <v>0.35055</v>
       </c>
       <c r="O114" t="n">
         <v>1842978.43</v>
@@ -11003,7 +11003,7 @@
         <v>0.092</v>
       </c>
       <c r="G131" t="n">
-        <v>0.133250661617734</v>
+        <v>0.133226482014987</v>
       </c>
       <c r="H131" t="n">
         <v>0.647</v>
@@ -11020,7 +11020,7 @@
         <v>0.2358</v>
       </c>
       <c r="N131" t="n">
-        <v>0.3502</v>
+        <v>0.35055</v>
       </c>
       <c r="O131" t="n">
         <v>1842978.43</v>
@@ -11080,7 +11080,7 @@
         <v>0.092</v>
       </c>
       <c r="G132" t="n">
-        <v>0.133250661617734</v>
+        <v>0.133226482014987</v>
       </c>
       <c r="H132" t="n">
         <v>0.647</v>
@@ -11097,7 +11097,7 @@
         <v>0.2358</v>
       </c>
       <c r="N132" t="n">
-        <v>0.3502</v>
+        <v>0.35055</v>
       </c>
       <c r="O132" t="n">
         <v>1842978.43</v>
@@ -12449,7 +12449,7 @@
         <v>0.0745</v>
       </c>
       <c r="G149" t="n">
-        <v>0.119400661617734</v>
+        <v>0.11915981534832</v>
       </c>
       <c r="H149" t="n">
         <v>0.647</v>
@@ -12526,7 +12526,7 @@
         <v>0.0745</v>
       </c>
       <c r="G150" t="n">
-        <v>0.119400661617734</v>
+        <v>0.11915981534832</v>
       </c>
       <c r="H150" t="n">
         <v>0.647</v>
@@ -12992,13 +12992,13 @@
         <v>0.9</v>
       </c>
       <c r="G156" t="n">
-        <v>1.12151513249896</v>
+        <v>1.13132287355318</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>3.34437855025247</v>
       </c>
       <c r="I156" t="n">
-        <v>2.75871</v>
+        <v>2.905</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -14049,7 +14049,7 @@
         <v>0.0625</v>
       </c>
       <c r="G169" t="n">
-        <v>0.105166666666667</v>
+        <v>0.104948333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0.647</v>
@@ -14060,7 +14060,7 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>0.015</v>
+        <v>0.01495</v>
       </c>
       <c r="M169" t="n">
         <v>0.1986</v>
@@ -14126,7 +14126,7 @@
         <v>0.0625</v>
       </c>
       <c r="G170" t="n">
-        <v>0.105166666666667</v>
+        <v>0.104948333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0.647</v>
@@ -14137,7 +14137,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
-        <v>0.015</v>
+        <v>0.01495</v>
       </c>
       <c r="M170" t="n">
         <v>0.1986</v>
@@ -14592,13 +14592,13 @@
         <v>1.175</v>
       </c>
       <c r="G176" t="n">
-        <v>1.2718059477961</v>
+        <v>1.28143855061721</v>
       </c>
       <c r="H176" t="n">
         <v>4.04</v>
       </c>
       <c r="I176" t="n">
-        <v>2.94149</v>
+        <v>3</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
@@ -14609,7 +14609,7 @@
         <v>2.2</v>
       </c>
       <c r="N176" t="n">
-        <v>2.6237</v>
+        <v>2.6276</v>
       </c>
       <c r="O176" t="n">
         <v>1842978.43</v>
@@ -15649,18 +15649,18 @@
         <v>0.049</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09779116678244081</v>
+        <v>0.097523939206117</v>
       </c>
       <c r="H189" t="n">
         <v>0.647</v>
       </c>
       <c r="I189" t="n">
-        <v>0.3215</v>
+        <v>0.3216</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
-        <v>0.015</v>
+        <v>0.01495</v>
       </c>
       <c r="M189" t="n">
         <v>0.1929</v>
@@ -15726,18 +15726,18 @@
         <v>0.049</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09779116678244081</v>
+        <v>0.097523939206117</v>
       </c>
       <c r="H190" t="n">
         <v>0.647</v>
       </c>
       <c r="I190" t="n">
-        <v>0.3215</v>
+        <v>0.3216</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
-        <v>0.015</v>
+        <v>0.01495</v>
       </c>
       <c r="M190" t="n">
         <v>0.1929</v>
@@ -16192,13 +16192,13 @@
         <v>1.35</v>
       </c>
       <c r="G196" t="n">
-        <v>1.34237115000497</v>
+        <v>1.35217889105919</v>
       </c>
       <c r="H196" t="n">
         <v>4.04</v>
       </c>
       <c r="I196" t="n">
-        <v>2.75871</v>
+        <v>2.905</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -17246,16 +17246,16 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0.0435</v>
+        <v>0.04345</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0913149794252215</v>
+        <v>0.09104045280778481</v>
       </c>
       <c r="H209" t="n">
         <v>0.647</v>
       </c>
       <c r="I209" t="n">
-        <v>0.336</v>
+        <v>0.3361</v>
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
@@ -17263,7 +17263,7 @@
         <v>0.012</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1692</v>
+        <v>0.16934</v>
       </c>
       <c r="N209" t="n">
         <v>0.2795</v>
@@ -17323,16 +17323,16 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0.0435</v>
+        <v>0.04345</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0913149794252215</v>
+        <v>0.09104045280778481</v>
       </c>
       <c r="H210" t="n">
         <v>0.647</v>
       </c>
       <c r="I210" t="n">
-        <v>0.336</v>
+        <v>0.3361</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
@@ -17340,7 +17340,7 @@
         <v>0.012</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1692</v>
+        <v>0.16934</v>
       </c>
       <c r="N210" t="n">
         <v>0.2795</v>
@@ -17792,13 +17792,13 @@
         <v>1.35</v>
       </c>
       <c r="G216" t="n">
-        <v>1.41507805287907</v>
+        <v>1.41824565625444</v>
       </c>
       <c r="H216" t="n">
-        <v>4.70234011607866</v>
+        <v>4.33713254374192</v>
       </c>
       <c r="I216" t="n">
-        <v>2.95124</v>
+        <v>3.25828</v>
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>2.2</v>
       </c>
       <c r="N216" t="n">
-        <v>2.6385</v>
+        <v>2.658</v>
       </c>
       <c r="O216" t="n">
         <v>1842978.43</v>
@@ -18849,21 +18849,21 @@
         <v>0.04</v>
       </c>
       <c r="G229" t="n">
-        <v>0.08747814709076231</v>
+        <v>0.0872049281364904</v>
       </c>
       <c r="H229" t="n">
         <v>0.55</v>
       </c>
       <c r="I229" t="n">
-        <v>0.3399</v>
+        <v>0.33999</v>
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
-        <v>0.012</v>
+        <v>0.01187</v>
       </c>
       <c r="M229" t="n">
-        <v>0.16641</v>
+        <v>0.1665</v>
       </c>
       <c r="N229" t="n">
         <v>0.25324</v>
@@ -18926,21 +18926,21 @@
         <v>0.04</v>
       </c>
       <c r="G230" t="n">
-        <v>0.08747814709076231</v>
+        <v>0.0872049281364904</v>
       </c>
       <c r="H230" t="n">
         <v>0.55</v>
       </c>
       <c r="I230" t="n">
-        <v>0.3399</v>
+        <v>0.33999</v>
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
-        <v>0.012</v>
+        <v>0.01187</v>
       </c>
       <c r="M230" t="n">
-        <v>0.16641</v>
+        <v>0.1665</v>
       </c>
       <c r="N230" t="n">
         <v>0.25324</v>
@@ -19392,13 +19392,13 @@
         <v>1.15</v>
       </c>
       <c r="G236" t="n">
-        <v>1.31300552657262</v>
+        <v>1.31629266215084</v>
       </c>
       <c r="H236" t="n">
-        <v>4.70234011607866</v>
+        <v>4.33713254374192</v>
       </c>
       <c r="I236" t="n">
-        <v>2.97074</v>
+        <v>3.29272</v>
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
@@ -19409,7 +19409,7 @@
         <v>2.2</v>
       </c>
       <c r="N236" t="n">
-        <v>2.66809</v>
+        <v>2.7188</v>
       </c>
       <c r="O236" t="n">
         <v>1842978.43</v>
@@ -20446,27 +20446,27 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>0.066</v>
+        <v>0.06594999999999999</v>
       </c>
       <c r="G249" t="n">
-        <v>0.101607080661293</v>
+        <v>0.101575702759533</v>
       </c>
       <c r="H249" t="n">
         <v>0.55</v>
       </c>
       <c r="I249" t="n">
-        <v>0.3846</v>
+        <v>0.3843</v>
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
-        <v>0.01416</v>
+        <v>0.01403</v>
       </c>
       <c r="M249" t="n">
         <v>0.1814</v>
       </c>
       <c r="N249" t="n">
-        <v>0.29112</v>
+        <v>0.29129</v>
       </c>
       <c r="O249" t="n">
         <v>1842978.43</v>
@@ -20523,27 +20523,27 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>0.066</v>
+        <v>0.06594999999999999</v>
       </c>
       <c r="G250" t="n">
-        <v>0.101607080661293</v>
+        <v>0.101575702759533</v>
       </c>
       <c r="H250" t="n">
         <v>0.55</v>
       </c>
       <c r="I250" t="n">
-        <v>0.3846</v>
+        <v>0.3843</v>
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
-        <v>0.01416</v>
+        <v>0.01403</v>
       </c>
       <c r="M250" t="n">
         <v>0.1814</v>
       </c>
       <c r="N250" t="n">
-        <v>0.29112</v>
+        <v>0.29129</v>
       </c>
       <c r="O250" t="n">
         <v>1842978.43</v>
@@ -20992,10 +20992,10 @@
         <v>1.05</v>
       </c>
       <c r="G256" t="n">
-        <v>1.17617146516067</v>
+        <v>1.16940836196924</v>
       </c>
       <c r="H256" t="n">
-        <v>4.70234011607866</v>
+        <v>4.33713254374192</v>
       </c>
       <c r="I256" t="n">
         <v>2.6</v>
@@ -22049,13 +22049,13 @@
         <v>0.09</v>
       </c>
       <c r="G269" t="n">
-        <v>0.127480404621974</v>
+        <v>0.127444021830895</v>
       </c>
       <c r="H269" t="n">
         <v>0.55</v>
       </c>
       <c r="I269" t="n">
-        <v>0.4264</v>
+        <v>0.4262</v>
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
@@ -22126,13 +22126,13 @@
         <v>0.09</v>
       </c>
       <c r="G270" t="n">
-        <v>0.127480404621974</v>
+        <v>0.127444021830895</v>
       </c>
       <c r="H270" t="n">
         <v>0.55</v>
       </c>
       <c r="I270" t="n">
-        <v>0.4264</v>
+        <v>0.4262</v>
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
@@ -22592,10 +22592,10 @@
         <v>0.95</v>
       </c>
       <c r="G276" t="n">
-        <v>1.09533813182733</v>
+        <v>1.08857502863591</v>
       </c>
       <c r="H276" t="n">
-        <v>4.70234011607866</v>
+        <v>4.33713254374192</v>
       </c>
       <c r="I276" t="n">
         <v>2.6</v>
@@ -23649,7 +23649,7 @@
         <v>0.108</v>
       </c>
       <c r="G289" t="n">
-        <v>0.138392867739089</v>
+        <v>0.138380998488156</v>
       </c>
       <c r="H289" t="n">
         <v>0.55</v>
@@ -23726,7 +23726,7 @@
         <v>0.108</v>
       </c>
       <c r="G290" t="n">
-        <v>0.138392867739089</v>
+        <v>0.138380998488156</v>
       </c>
       <c r="H290" t="n">
         <v>0.55</v>
@@ -24192,10 +24192,10 @@
         <v>1</v>
       </c>
       <c r="G296" t="n">
-        <v>1.11333198397593</v>
+        <v>1.10669184629708</v>
       </c>
       <c r="H296" t="n">
-        <v>4.70234011607866</v>
+        <v>4.33713254374192</v>
       </c>
       <c r="I296" t="n">
         <v>3</v>
@@ -25249,7 +25249,7 @@
         <v>0.1</v>
       </c>
       <c r="G309" t="n">
-        <v>0.130473064957214</v>
+        <v>0.130468878907453</v>
       </c>
       <c r="H309" t="n">
         <v>0.55</v>
@@ -25326,7 +25326,7 @@
         <v>0.1</v>
       </c>
       <c r="G310" t="n">
-        <v>0.130473064957214</v>
+        <v>0.130468878907453</v>
       </c>
       <c r="H310" t="n">
         <v>0.55</v>
@@ -26849,7 +26849,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="G329" t="n">
-        <v>0.127797113523912</v>
+        <v>0.127795343257627</v>
       </c>
       <c r="H329" t="n">
         <v>0.51</v>
@@ -26926,7 +26926,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="G330" t="n">
-        <v>0.127797113523912</v>
+        <v>0.127795343257627</v>
       </c>
       <c r="H330" t="n">
         <v>0.51</v>
@@ -27285,6 +27285,237 @@
         </is>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Hautapu at US Rangitikei River Conf</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F335" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.2594</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0.3857</v>
+      </c>
+      <c r="N335" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O335" t="n">
+        <v>1842978.43</v>
+      </c>
+      <c r="P335" t="n">
+        <v>5595723.71</v>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T335" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Hautapu at US Rangitikei River Conf</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F336" t="n">
+        <v>84.44</v>
+      </c>
+      <c r="G336" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="H336" t="n">
+        <v>113</v>
+      </c>
+      <c r="I336" t="n">
+        <v>113</v>
+      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>82.655</v>
+      </c>
+      <c r="M336" t="n">
+        <v>106</v>
+      </c>
+      <c r="N336" t="n">
+        <v>113</v>
+      </c>
+      <c r="O336" t="n">
+        <v>1842978.43</v>
+      </c>
+      <c r="P336" t="n">
+        <v>5595723.71</v>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T336" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Hautapu at US Rangitikei River Conf</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F337" t="n">
+        <v>3.637</v>
+      </c>
+      <c r="G337" t="n">
+        <v>4.1404</v>
+      </c>
+      <c r="H337" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="I337" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="M337" t="n">
+        <v>5.20075</v>
+      </c>
+      <c r="N337" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="O337" t="n">
+        <v>1842978.43</v>
+      </c>
+      <c r="P337" t="n">
+        <v>5595723.71</v>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T337" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U337" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/HautapuatUSRangitikeiRiverConf_e993868106.xlsx
+++ b/state_results/Rivers/HautapuatUSRangitikeiRiverConf_e993868106.xlsx
@@ -12992,13 +12992,13 @@
         <v>0.9</v>
       </c>
       <c r="G156" t="n">
-        <v>1.13132287355318</v>
+        <v>1.11608557381521</v>
       </c>
       <c r="H156" t="n">
-        <v>3.34437855025247</v>
+        <v>3</v>
       </c>
       <c r="I156" t="n">
-        <v>2.905</v>
+        <v>2.615</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -13009,7 +13009,7 @@
         <v>2.2</v>
       </c>
       <c r="N156" t="n">
-        <v>2.602</v>
+        <v>2.51569</v>
       </c>
       <c r="O156" t="n">
         <v>1842978.43</v>
@@ -14592,13 +14592,13 @@
         <v>1.175</v>
       </c>
       <c r="G176" t="n">
-        <v>1.28143855061721</v>
+        <v>1.26647334551743</v>
       </c>
       <c r="H176" t="n">
         <v>4.04</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2.886</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
@@ -14609,7 +14609,7 @@
         <v>2.2</v>
       </c>
       <c r="N176" t="n">
-        <v>2.6276</v>
+        <v>2.6004</v>
       </c>
       <c r="O176" t="n">
         <v>1842978.43</v>
@@ -16192,13 +16192,13 @@
         <v>1.35</v>
       </c>
       <c r="G196" t="n">
-        <v>1.35217889105919</v>
+        <v>1.33694159132123</v>
       </c>
       <c r="H196" t="n">
         <v>4.04</v>
       </c>
       <c r="I196" t="n">
-        <v>2.905</v>
+        <v>2.615</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -16209,7 +16209,7 @@
         <v>2.2</v>
       </c>
       <c r="N196" t="n">
-        <v>2.602</v>
+        <v>2.51569</v>
       </c>
       <c r="O196" t="n">
         <v>1842978.43</v>
@@ -17792,13 +17792,13 @@
         <v>1.35</v>
       </c>
       <c r="G216" t="n">
-        <v>1.41824565625444</v>
+        <v>1.42498190216746</v>
       </c>
       <c r="H216" t="n">
-        <v>4.33713254374192</v>
+        <v>5.54567755454589</v>
       </c>
       <c r="I216" t="n">
-        <v>3.25828</v>
+        <v>2.905</v>
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>2.2</v>
       </c>
       <c r="N216" t="n">
-        <v>2.658</v>
+        <v>2.602</v>
       </c>
       <c r="O216" t="n">
         <v>1842978.43</v>
@@ -19392,13 +19392,13 @@
         <v>1.15</v>
       </c>
       <c r="G236" t="n">
-        <v>1.31629266215084</v>
+        <v>1.32328310602284</v>
       </c>
       <c r="H236" t="n">
-        <v>4.33713254374192</v>
+        <v>5.54567755454589</v>
       </c>
       <c r="I236" t="n">
-        <v>3.29272</v>
+        <v>2.943</v>
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
@@ -19409,7 +19409,7 @@
         <v>2.2</v>
       </c>
       <c r="N236" t="n">
-        <v>2.7188</v>
+        <v>2.53588</v>
       </c>
       <c r="O236" t="n">
         <v>1842978.43</v>
@@ -20992,10 +20992,10 @@
         <v>1.05</v>
       </c>
       <c r="G256" t="n">
-        <v>1.16940836196924</v>
+        <v>1.19178882513228</v>
       </c>
       <c r="H256" t="n">
-        <v>4.33713254374192</v>
+        <v>5.54567755454589</v>
       </c>
       <c r="I256" t="n">
         <v>2.6</v>
@@ -22592,10 +22592,10 @@
         <v>0.95</v>
       </c>
       <c r="G276" t="n">
-        <v>1.08857502863591</v>
+        <v>1.11095549179895</v>
       </c>
       <c r="H276" t="n">
-        <v>4.33713254374192</v>
+        <v>5.54567755454589</v>
       </c>
       <c r="I276" t="n">
         <v>2.6</v>
@@ -24192,10 +24192,10 @@
         <v>1</v>
       </c>
       <c r="G296" t="n">
-        <v>1.10669184629708</v>
+        <v>1.12866539194806</v>
       </c>
       <c r="H296" t="n">
-        <v>4.33713254374192</v>
+        <v>5.54567755454589</v>
       </c>
       <c r="I296" t="n">
         <v>3</v>
